--- a/teamSprintSheetProject5.xlsx
+++ b/teamSprintSheetProject5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627AF1CA-8C3C-954B-8DC4-FA3B3BAD0BE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B4021-2698-4039-9DD5-0C89D5826ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="27640" windowHeight="16320" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
   </bookViews>
   <sheets>
     <sheet name="April 1" sheetId="2" r:id="rId1"/>
@@ -98,49 +98,49 @@
     <t>Configuring game scenes and adding addition features</t>
   </si>
   <si>
-    <t>Week Of:  April 22 - 26, 2019</t>
-  </si>
-  <si>
     <t>GUI elements and Enchancing certain elements</t>
   </si>
   <si>
     <t>Networking features and connection between server and Clients</t>
   </si>
   <si>
-    <t>Learn Node JS</t>
-  </si>
-  <si>
     <t>Start Server for Game</t>
   </si>
   <si>
-    <t>Learn Node JS and HTML</t>
-  </si>
-  <si>
     <t>Decide how Tank will function in game</t>
   </si>
   <si>
     <t>Create ideas for how the GUI and user interface will look like</t>
   </si>
   <si>
-    <t>Learn Node JS, HTML, and CSS</t>
-  </si>
-  <si>
-    <t>Implement the Tank in the game</t>
-  </si>
-  <si>
-    <t>Implement GUI and UI deisgns</t>
-  </si>
-  <si>
-    <t>Configure the Server and Client Logic together and make them connect</t>
-  </si>
-  <si>
     <t>Start deciding how game will be played out</t>
   </si>
   <si>
     <t>Write Game Logic Code</t>
   </si>
   <si>
-    <t>Learn Node JS and Brainstorm Game functions</t>
+    <t>Week Of:  April 29 - May 3, 2019</t>
+  </si>
+  <si>
+    <t>Worked around with map border and images</t>
+  </si>
+  <si>
+    <t>Worked with player and bullet objects</t>
+  </si>
+  <si>
+    <t>Worked around with game bonuses</t>
+  </si>
+  <si>
+    <t>Game appearance</t>
+  </si>
+  <si>
+    <t>Lobby and Start-up appearance</t>
+  </si>
+  <si>
+    <t>Add obstacles and power ups</t>
+  </si>
+  <si>
+    <t>debug</t>
   </si>
 </sst>
 </file>
@@ -483,23 +483,23 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" thickBottom="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="22.2" thickBottom="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="42.796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -521,9 +521,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1" t="s">
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="2"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2"/>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -551,10 +551,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,8 +577,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -589,16 +589,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -609,18 +609,18 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
@@ -629,18 +629,18 @@
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8">
         <v>4</v>
@@ -649,63 +649,63 @@
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:5" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" spans="4:5" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="4:5" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="4:5" ht="30" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="4:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
